--- a/ch_multiple_regression/mr_reg_data_predicted.xlsx
+++ b/ch_multiple_regression/mr_reg_data_predicted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dstanley/RDevelopment/psyc6060bookdown/ch_multiple_regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidstanley/RDevelopment/psyc6060bookdown/ch_multiple_regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA926801-7B6C-8447-A7AB-189FE3D3C8AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C89C079-7849-9648-BBBF-EFC14C33AF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{104A6329-7A58-EE4C-BC87-D0C0E2B58382}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="30640" windowHeight="21020" xr2:uid="{104A6329-7A58-EE4C-BC87-D0C0E2B58382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>age</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Person 17</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -184,19 +187,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E926E9D-1829-4D43-A24F-7485AD5305FB}">
-  <dimension ref="D7:H24"/>
+  <dimension ref="D7:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -524,9 +527,14 @@
     <col min="5" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:24" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>0</v>
@@ -540,8 +548,38 @@
       <c r="H7" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -557,8 +595,40 @@
       <c r="H8" s="9">
         <v>122.3</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>107.6</v>
+      </c>
+      <c r="O8" s="7">
+        <v>122</v>
+      </c>
+      <c r="P8" s="9">
+        <v>122.3</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="7">
+        <v>122</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="6">
+        <v>107.6</v>
+      </c>
+      <c r="W8" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,8 +644,40 @@
       <c r="H9" s="9">
         <v>114.9</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>100.9</v>
+      </c>
+      <c r="O9" s="7">
+        <v>108.7</v>
+      </c>
+      <c r="P9" s="9">
+        <v>114.9</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7">
+        <v>108.7</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="6">
+        <v>100.9</v>
+      </c>
+      <c r="W9" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,8 +693,40 @@
       <c r="H10" s="9">
         <v>115.2</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="N10" s="6">
+        <v>89</v>
+      </c>
+      <c r="O10" s="7">
+        <v>130.4</v>
+      </c>
+      <c r="P10" s="9">
+        <v>115.2</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="7">
+        <v>130.4</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="6">
+        <v>89</v>
+      </c>
+      <c r="W10" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="X10" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -608,8 +742,40 @@
       <c r="H11" s="9">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="N11" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>123.4</v>
+      </c>
+      <c r="P11" s="9">
+        <v>114.6</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="7">
+        <v>123.4</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="W11" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="X11" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -625,8 +791,40 @@
       <c r="H12" s="9">
         <v>118.5</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>97.1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>121.5</v>
+      </c>
+      <c r="P12" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7">
+        <v>121.5</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="6">
+        <v>97.1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -642,8 +840,40 @@
       <c r="H13" s="9">
         <v>122.4</v>
       </c>
-    </row>
-    <row r="14" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>108.1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>125.7</v>
+      </c>
+      <c r="P13" s="9">
+        <v>122.4</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="7">
+        <v>125.7</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="6">
+        <v>108.1</v>
+      </c>
+      <c r="W13" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="X13" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
@@ -659,8 +889,40 @@
       <c r="H14" s="9">
         <v>126.3</v>
       </c>
-    </row>
-    <row r="15" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="N14" s="6">
+        <v>120.4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>122.9</v>
+      </c>
+      <c r="P14" s="9">
+        <v>126.3</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7">
+        <v>122.9</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="6">
+        <v>120.4</v>
+      </c>
+      <c r="W14" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="X14" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
@@ -676,8 +938,40 @@
       <c r="H15" s="9">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>90.5</v>
+      </c>
+      <c r="O15" s="7">
+        <v>109.6</v>
+      </c>
+      <c r="P15" s="9">
+        <v>114</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="7">
+        <v>109.6</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="6">
+        <v>90.5</v>
+      </c>
+      <c r="W15" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="X15" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
@@ -693,8 +987,40 @@
       <c r="H16" s="9">
         <v>123.4</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="6">
+        <v>48.2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>118.9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>118.2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>123.4</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="7">
+        <v>118.2</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="6">
+        <v>118.9</v>
+      </c>
+      <c r="W16" s="6">
+        <v>48.2</v>
+      </c>
+      <c r="X16" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,8 +1036,40 @@
       <c r="H17" s="9">
         <v>119.8</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>107.9</v>
+      </c>
+      <c r="O17" s="7">
+        <v>118.4</v>
+      </c>
+      <c r="P17" s="9">
+        <v>119.8</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="7">
+        <v>118.4</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="6">
+        <v>107.9</v>
+      </c>
+      <c r="W17" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
@@ -727,8 +1085,40 @@
       <c r="H18" s="9">
         <v>124.8</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="N18" s="6">
+        <v>114.6</v>
+      </c>
+      <c r="O18" s="7">
+        <v>114.2</v>
+      </c>
+      <c r="P18" s="9">
+        <v>124.8</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="7">
+        <v>114.2</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="6">
+        <v>114.6</v>
+      </c>
+      <c r="W18" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="X18" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -744,8 +1134,40 @@
       <c r="H19" s="9">
         <v>121.7</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="6">
+        <v>51.9</v>
+      </c>
+      <c r="N19" s="6">
+        <v>117.8</v>
+      </c>
+      <c r="O19" s="7">
+        <v>138.5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>121.7</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="7">
+        <v>138.5</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="6">
+        <v>117.8</v>
+      </c>
+      <c r="W19" s="6">
+        <v>51.9</v>
+      </c>
+      <c r="X19" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
@@ -761,8 +1183,40 @@
       <c r="H20" s="9">
         <v>112.9</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="N20" s="6">
+        <v>85.8</v>
+      </c>
+      <c r="O20" s="7">
+        <v>110.4</v>
+      </c>
+      <c r="P20" s="9">
+        <v>112.9</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="7">
+        <v>110.4</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="6">
+        <v>85.8</v>
+      </c>
+      <c r="W20" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="X20" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
@@ -778,8 +1232,40 @@
       <c r="H21" s="9">
         <v>111.4</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="N21" s="6">
+        <v>77.3</v>
+      </c>
+      <c r="O21" s="7">
+        <v>114.7</v>
+      </c>
+      <c r="P21" s="9">
+        <v>111.4</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="7">
+        <v>114.7</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="6">
+        <v>77.3</v>
+      </c>
+      <c r="W21" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="X21" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,8 +1281,40 @@
       <c r="H22" s="9">
         <v>116.3</v>
       </c>
-    </row>
-    <row r="23" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="N22" s="6">
+        <v>98.7</v>
+      </c>
+      <c r="O22" s="7">
+        <v>112.2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>116.3</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="7">
+        <v>112.2</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="6">
+        <v>98.7</v>
+      </c>
+      <c r="W22" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="X22" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
@@ -812,8 +1330,40 @@
       <c r="H23" s="9">
         <v>120.2</v>
       </c>
-    </row>
-    <row r="24" spans="4:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="N23" s="6">
+        <v>104.4</v>
+      </c>
+      <c r="O23" s="7">
+        <v>107.1</v>
+      </c>
+      <c r="P23" s="9">
+        <v>120.2</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="7">
+        <v>107.1</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="6">
+        <v>104.4</v>
+      </c>
+      <c r="W23" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="X23" s="6">
+        <v>102.23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -828,10 +1378,43 @@
       </c>
       <c r="H24" s="9">
         <v>117.2</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>96.6</v>
+      </c>
+      <c r="O24" s="7">
+        <v>117.9</v>
+      </c>
+      <c r="P24" s="9">
+        <v>117.2</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="7">
+        <v>117.9</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="6">
+        <v>96.6</v>
+      </c>
+      <c r="W24" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="X24" s="6">
+        <v>102.23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>